--- a/docs/Language Waves/wave1.xlsx
+++ b/docs/Language Waves/wave1.xlsx
@@ -2,20 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrbhatn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="es_mx" sheetId="1" r:id="rId1"/>
+    <sheet name="es_intl" sheetId="3" r:id="rId1"/>
+    <sheet name="es_mx" sheetId="1" r:id="rId2"/>
+    <sheet name="en_cy" sheetId="4" r:id="rId3"/>
+    <sheet name="en_mt" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es_mx!$A$1:$E$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">es_intl!$A$1:$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">es_mx!$A$1:$E$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="169">
   <si>
     <t>http://www.cisco.com/web/LA/productos/telepresence/index.html</t>
   </si>
@@ -197,18 +201,9 @@
     <t>service-listing-var2</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/technology.html</t>
-  </si>
-  <si>
     <t>servers-unified-computing</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>benefit-Rvar1</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/soluciones/sp/benefit.html</t>
   </si>
   <si>
@@ -224,9 +219,6 @@
     <t>http://www.cisco.com/web/LA/soluciones/collaboration/benefits.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/productos/voice/benefits.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/soluciones/collaboration/architecture.html</t>
   </si>
   <si>
@@ -308,42 +300,6 @@
     <t>http://www.cisco.com/web/LA/productos/storage/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/productos/routers/services.html</t>
-  </si>
-  <si>
-    <t>service-listing-Rvar1</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/switches/services.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/wireless/services.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/services.html</t>
-  </si>
-  <si>
-    <t>service-listing-Rvar2</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/switches/solutions.html</t>
-  </si>
-  <si>
-    <t>solution-listing-Rvar1</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/routers/solutions.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/wireless/solutions.html</t>
-  </si>
-  <si>
-    <t>solution-listing-Rvar2</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/solutions.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/productos/index.html</t>
   </si>
   <si>
@@ -356,12 +312,6 @@
     <t>index-Rrootvar2</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/productos/routers_comparison.html</t>
-  </si>
-  <si>
-    <t>buyersguide-var1</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/productos/wireless_comparison.html</t>
   </si>
   <si>
@@ -395,12 +345,6 @@
     <t>featured-case-studies-webvar9</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/soluciones/sp/videoscape/index.html</t>
-  </si>
-  <si>
-    <t>index-videoscapevar3</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/soluciones/strategy/index.html</t>
   </si>
   <si>
@@ -425,9 +369,6 @@
     <t>software-defined-networking</t>
   </si>
   <si>
-    <t>technology-rvar1</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/partners/index.html</t>
   </si>
   <si>
@@ -539,7 +480,64 @@
     <t>overview-WebVar3</t>
   </si>
   <si>
+    <t>http://www.cisco.com/web/LA/productos/routers/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/productos/switches/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/productos/wireless/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/productos/security/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/productos/security/benefits.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/productos/security/technology.html</t>
+  </si>
+  <si>
+    <t>index-WebVar13</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>product-listing-var8</t>
+  </si>
+  <si>
+    <t>benefit-var1</t>
+  </si>
+  <si>
+    <t>technology-var1</t>
+  </si>
+  <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CY/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CY/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CY/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CY/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MT/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MT/learning/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MT/about/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/MT/products/index.html</t>
   </si>
 </sst>
 </file>
@@ -637,7 +635,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -649,7 +647,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -932,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,308 +948,308 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
+      <c r="A9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1402,65 +1402,65 @@
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1470,24 +1470,24 @@
         <v>20</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>67</v>
@@ -1504,7 +1504,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,16 +1512,16 @@
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,16 +1529,16 @@
         <v>70</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,84 +1546,84 @@
         <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,101 +1631,97 @@
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1733,7 +1729,7 @@
         <v>93</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>94</v>
@@ -1742,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,67 +1746,59 @@
         <v>95</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,552 +1806,442 @@
         <v>101</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C54" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="B61" s="4" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C62" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E62" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B63" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C63" s="4" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="C64" s="4" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C66" s="4" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>20</v>
+        <v>141</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>20</v>
+        <v>145</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>20</v>
+      <c r="A71" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>20</v>
+      <c r="A72" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>20</v>
+      <c r="A73" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>20</v>
+      <c r="A74" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>20</v>
+      <c r="A75" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>20</v>
+      <c r="A76" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E83">
-    <sortCondition descending="1" ref="E1:E83"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A12" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5"/>
+    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A15" r:id="rId7"/>
+    <hyperlink ref="A16" r:id="rId8"/>
+    <hyperlink ref="A17" r:id="rId9"/>
+    <hyperlink ref="A18" r:id="rId10"/>
+    <hyperlink ref="A1" r:id="rId11"/>
+    <hyperlink ref="A2" r:id="rId12"/>
+    <hyperlink ref="A3" r:id="rId13"/>
+    <hyperlink ref="A4" r:id="rId14"/>
+    <hyperlink ref="A5" r:id="rId15"/>
+    <hyperlink ref="A6" r:id="rId16"/>
+    <hyperlink ref="A7" r:id="rId17"/>
+    <hyperlink ref="A8" r:id="rId18"/>
     <hyperlink ref="A19" r:id="rId19"/>
     <hyperlink ref="A20" r:id="rId20"/>
     <hyperlink ref="A21" r:id="rId21"/>
@@ -2382,45 +2260,1573 @@
     <hyperlink ref="A33" r:id="rId34"/>
     <hyperlink ref="A34" r:id="rId35"/>
     <hyperlink ref="A35" r:id="rId36"/>
-    <hyperlink ref="A36" r:id="rId37"/>
-    <hyperlink ref="A37" r:id="rId38"/>
-    <hyperlink ref="A39" r:id="rId39"/>
-    <hyperlink ref="A38" r:id="rId40"/>
+    <hyperlink ref="A37" r:id="rId37"/>
+    <hyperlink ref="A36" r:id="rId38"/>
+    <hyperlink ref="A38" r:id="rId39"/>
+    <hyperlink ref="A39" r:id="rId40"/>
     <hyperlink ref="A40" r:id="rId41"/>
     <hyperlink ref="A41" r:id="rId42"/>
     <hyperlink ref="A42" r:id="rId43"/>
     <hyperlink ref="A43" r:id="rId44"/>
     <hyperlink ref="A44" r:id="rId45"/>
-    <hyperlink ref="A45" r:id="rId46"/>
-    <hyperlink ref="A46" r:id="rId47"/>
-    <hyperlink ref="A47" r:id="rId48"/>
-    <hyperlink ref="A48" r:id="rId49"/>
-    <hyperlink ref="A49" r:id="rId50"/>
-    <hyperlink ref="B50" r:id="rId51" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="A50" r:id="rId52"/>
+    <hyperlink ref="A46" r:id="rId46"/>
+    <hyperlink ref="A47" r:id="rId47"/>
+    <hyperlink ref="A48" r:id="rId48"/>
+    <hyperlink ref="A51" r:id="rId49"/>
+    <hyperlink ref="A52" r:id="rId50"/>
+    <hyperlink ref="A53" r:id="rId51"/>
+    <hyperlink ref="A54" r:id="rId52"/>
     <hyperlink ref="A55" r:id="rId53"/>
     <hyperlink ref="A56" r:id="rId54"/>
-    <hyperlink ref="A57" r:id="rId55"/>
-    <hyperlink ref="A58" r:id="rId56"/>
+    <hyperlink ref="A62" r:id="rId55"/>
+    <hyperlink ref="A63" r:id="rId56"/>
     <hyperlink ref="A64" r:id="rId57"/>
-    <hyperlink ref="A65" r:id="rId58"/>
-    <hyperlink ref="A59" r:id="rId59"/>
-    <hyperlink ref="A60" r:id="rId60"/>
-    <hyperlink ref="A66" r:id="rId61"/>
-    <hyperlink ref="A67" r:id="rId62"/>
-    <hyperlink ref="A68" r:id="rId63"/>
-    <hyperlink ref="A69" r:id="rId64"/>
-    <hyperlink ref="A75" r:id="rId65"/>
-    <hyperlink ref="A76" r:id="rId66"/>
-    <hyperlink ref="A77" r:id="rId67"/>
-    <hyperlink ref="A79" r:id="rId68"/>
-    <hyperlink ref="A80" r:id="rId69"/>
-    <hyperlink ref="A81" r:id="rId70"/>
-    <hyperlink ref="A82" r:id="rId71"/>
-    <hyperlink ref="A83" r:id="rId72"/>
-    <hyperlink ref="A61" r:id="rId73"/>
+    <hyperlink ref="A66" r:id="rId58"/>
+    <hyperlink ref="A67" r:id="rId59"/>
+    <hyperlink ref="A68" r:id="rId60"/>
+    <hyperlink ref="A69" r:id="rId61"/>
+    <hyperlink ref="A70" r:id="rId62"/>
+    <hyperlink ref="A71" r:id="rId63"/>
+    <hyperlink ref="A72" r:id="rId64"/>
+    <hyperlink ref="A73" r:id="rId65"/>
+    <hyperlink ref="A75" r:id="rId66"/>
+    <hyperlink ref="A76" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:E83">
+    <sortCondition descending="1" ref="E1:E83"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A12" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId5"/>
+    <hyperlink ref="A14" r:id="rId6"/>
+    <hyperlink ref="A15" r:id="rId7"/>
+    <hyperlink ref="A16" r:id="rId8"/>
+    <hyperlink ref="A17" r:id="rId9"/>
+    <hyperlink ref="A18" r:id="rId10"/>
+    <hyperlink ref="A1" r:id="rId11"/>
+    <hyperlink ref="A2" r:id="rId12"/>
+    <hyperlink ref="A3" r:id="rId13"/>
+    <hyperlink ref="A4" r:id="rId14"/>
+    <hyperlink ref="A5" r:id="rId15"/>
+    <hyperlink ref="A6" r:id="rId16"/>
+    <hyperlink ref="A7" r:id="rId17"/>
+    <hyperlink ref="A8" r:id="rId18"/>
+    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="A20" r:id="rId20"/>
+    <hyperlink ref="A21" r:id="rId21"/>
+    <hyperlink ref="A22" r:id="rId22"/>
+    <hyperlink ref="A23" r:id="rId23"/>
+    <hyperlink ref="A24" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A25" r:id="rId26"/>
+    <hyperlink ref="A26" r:id="rId27"/>
+    <hyperlink ref="A27" r:id="rId28"/>
+    <hyperlink ref="A28" r:id="rId29"/>
+    <hyperlink ref="A29" r:id="rId30"/>
+    <hyperlink ref="A30" r:id="rId31"/>
+    <hyperlink ref="A31" r:id="rId32"/>
+    <hyperlink ref="A32" r:id="rId33"/>
+    <hyperlink ref="A33" r:id="rId34"/>
+    <hyperlink ref="A34" r:id="rId35"/>
+    <hyperlink ref="A35" r:id="rId36"/>
+    <hyperlink ref="A37" r:id="rId37"/>
+    <hyperlink ref="A36" r:id="rId38"/>
+    <hyperlink ref="A38" r:id="rId39"/>
+    <hyperlink ref="A39" r:id="rId40"/>
+    <hyperlink ref="A40" r:id="rId41"/>
+    <hyperlink ref="A41" r:id="rId42"/>
+    <hyperlink ref="A42" r:id="rId43"/>
+    <hyperlink ref="A43" r:id="rId44"/>
+    <hyperlink ref="A44" r:id="rId45"/>
+    <hyperlink ref="A46" r:id="rId46"/>
+    <hyperlink ref="A47" r:id="rId47"/>
+    <hyperlink ref="A48" r:id="rId48"/>
+    <hyperlink ref="A51" r:id="rId49"/>
+    <hyperlink ref="A52" r:id="rId50"/>
+    <hyperlink ref="A53" r:id="rId51"/>
+    <hyperlink ref="A54" r:id="rId52"/>
+    <hyperlink ref="A55" r:id="rId53"/>
+    <hyperlink ref="A56" r:id="rId54"/>
+    <hyperlink ref="A62" r:id="rId55"/>
+    <hyperlink ref="A63" r:id="rId56"/>
+    <hyperlink ref="A64" r:id="rId57"/>
+    <hyperlink ref="A66" r:id="rId58"/>
+    <hyperlink ref="A67" r:id="rId59"/>
+    <hyperlink ref="A68" r:id="rId60"/>
+    <hyperlink ref="A69" r:id="rId61"/>
+    <hyperlink ref="A70" r:id="rId62"/>
+    <hyperlink ref="A71" r:id="rId63"/>
+    <hyperlink ref="A72" r:id="rId64"/>
+    <hyperlink ref="A73" r:id="rId65"/>
+    <hyperlink ref="A75" r:id="rId66"/>
+    <hyperlink ref="A76" r:id="rId67"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>